--- a/models/PerformanceData/svc_data_parametertuning2.xlsx
+++ b/models/PerformanceData/svc_data_parametertuning2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond Vu\Documents\GitHub\OscarPredictor\models\PerformanceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72FD948-11F5-4191-AA94-1D3272F7F1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F1CE7-23AB-4895-B38C-AC56B22AC81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="svc_data_parametertuning2" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,6 +710,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>(svc_data_parametertuning2!$A$2,svc_data_parametertuning2!$A$7,svc_data_parametertuning2!$A$12,svc_data_parametertuning2!$A$17,svc_data_parametertuning2!$A$22)</c:f>
@@ -795,6 +798,126 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C8E0-41AB-81FB-AB23EB519F0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-C8E0-41AB-81FB-AB23EB519F0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-C8E0-41AB-81FB-AB23EB519F0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C8E0-41AB-81FB-AB23EB519F0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1541776027996495E-2"/>
+                  <c:y val="-8.0983887430737853E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-C8E0-41AB-81FB-AB23EB519F0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>(svc_data_parametertuning2!$A$3,svc_data_parametertuning2!$A$8,svc_data_parametertuning2!$A$13,svc_data_parametertuning2!$A$18,svc_data_parametertuning2!$A$23)</c:f>
@@ -880,6 +1003,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>(svc_data_parametertuning2!$A$4,svc_data_parametertuning2!$A$9,svc_data_parametertuning2!$A$14,svc_data_parametertuning2!$A$19,svc_data_parametertuning2!$A$24)</c:f>
@@ -965,6 +1091,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>(svc_data_parametertuning2!$A$5,svc_data_parametertuning2!$A$10,svc_data_parametertuning2!$A$15,svc_data_parametertuning2!$A$20,svc_data_parametertuning2!$A$25)</c:f>
@@ -1050,6 +1179,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>(svc_data_parametertuning2!$A$6,svc_data_parametertuning2!$A$11,svc_data_parametertuning2!$A$16,svc_data_parametertuning2!$A$21,svc_data_parametertuning2!$A$26)</c:f>
@@ -1106,8 +1238,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1998,14 +2131,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2440,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
